--- a/biology/Médecine/Hôpital_central_de_Kainuu/Hôpital_central_de_Kainuu.xlsx
+++ b/biology/Médecine/Hôpital_central_de_Kainuu/Hôpital_central_de_Kainuu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Kainuu</t>
+          <t>Hôpital_central_de_Kainuu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital central de Kainuu (finnois : Kainuun keskussairaala), est un hôpital du district hospitalier de Kainuu situé à Kajaani en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital central de Kainuu (finnois : Kainuun keskussairaala), est un hôpital du district hospitalier de Kainuu situé à Kajaani en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Kainuu</t>
+          <t>Hôpital_central_de_Kainuu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital central de Kainuu, qui se composait d'une tour de dix étages et d'une base de trois étages, est construit en 1968. L'hôpital central de Kainuu à Kajaani était basé sur une proposition de l'architecte Reino Koivula  qui a remporté le concours d'architecte ne 1962[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital central de Kainuu, qui se composait d'une tour de dix étages et d'une base de trois étages, est construit en 1968. L'hôpital central de Kainuu à Kajaani était basé sur une proposition de l'architecte Reino Koivula  qui a remporté le concours d'architecte ne 1962.
 En 2020-2021, un nouveau bâtiment de l'hôpital central est achevé et il est progressivement mis en service. 
-Le déménagement de l'ancien bâtiment de l'hôpital devrait s'achever à l'automne 2021[3],[4],[5].
-Ensuite, l'ancien hôpital central pourra être démoli[3].
+Le déménagement de l'ancien bâtiment de l'hôpital devrait s'achever à l'automne 2021.
+Ensuite, l'ancien hôpital central pourra être démoli.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Kainuu</t>
+          <t>Hôpital_central_de_Kainuu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital central emploie 900 personnes, dont 221 infirmiers[6].
-Chaque année, l'hôpital assure environ 60 000 journées d'hospitalisation dans les services de soins somatiques de l'hôpital et environ 23 000 journées dans les services de soins psychiatriques[6].
-Annuellement, il accueille environ 140 000 visites ambulatoires par an dans les cliniques somatiques et environ 54 000 visites dans les cliniques psychiatriques[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital central emploie 900 personnes, dont 221 infirmiers.
+Chaque année, l'hôpital assure environ 60 000 journées d'hospitalisation dans les services de soins somatiques de l'hôpital et environ 23 000 journées dans les services de soins psychiatriques.
+Annuellement, il accueille environ 140 000 visites ambulatoires par an dans les cliniques somatiques et environ 54 000 visites dans les cliniques psychiatriques.
 </t>
         </is>
       </c>
